--- a/public/main-total-final.xlsx
+++ b/public/main-total-final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29103"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vanessa\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guilherme\Desktop\EMEAREPORT\my-app\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0980B051-B02D-47F5-A5EA-DF7BC6191327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A117F1E-1231-46BE-96BE-A964F5033ECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C0A60286-670E-40AE-8F59-128E7048F302}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C0A60286-670E-40AE-8F59-128E7048F302}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>Quarter</t>
   </si>
@@ -135,13 +135,16 @@
   </si>
   <si>
     <t>6.44</t>
+  </si>
+  <si>
+    <t>0.14</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -529,24 +532,24 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -587,7 +590,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -628,7 +631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -669,7 +672,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -710,7 +713,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -751,7 +754,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -792,7 +795,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>29</v>
       </c>
@@ -813,10 +816,10 @@
         <v>31</v>
       </c>
       <c r="H7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="J7">
         <v>3</v>
@@ -831,7 +834,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G8" s="4"/>
     </row>
   </sheetData>
